--- a/data/demo_score/predict.xlsx
+++ b/data/demo_score/predict.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="510" yWindow="585" windowWidth="27735" windowHeight="11700"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4245" uniqueCount="1315">
   <si>
     <t>document</t>
   </si>
@@ -491,7 +490,7 @@
     <t>电视挺大的，支架就2颗螺丝放不稳，摆电视柜上一碰就摇摇晃晃，猫爬柜子上碰了下电视直接掉地上碎屏了，不退不换，修理费3298元比新买还贵，无语……</t>
   </si>
   <si>
-    <t xml:space="preserve">　　才几个月，就出现黑屏打不开的情况，有吧友遇到吗</t>
+    <t>　　才几个月，就出现黑屏打不开的情况，有吧友遇到吗</t>
   </si>
   <si>
     <t>物流配送到家 质量很好 价格实惠</t>
@@ -2360,7 +2359,7 @@
     <t>电视机比较轻，没有说明书，还行吧</t>
   </si>
   <si>
-    <t xml:space="preserve">　　微鲸电视43寸刚买一年零两个月就不能开机，一直显示蓝屏，打400电话说给安排售后，结果4天过去才有人来，而且来的时候没带任何检测工具工具连螺丝刀什么都没有带，看了后说是要给更新系统还要收取费用145，说更新系统不行就换主板，要收取费用510元，连检测的步骤都没有。就说：越智能的东西毁的越快。这是不是就自己承认微鲸电视存在质量问题，买的某米的电视用了2年多一点问题没有（声明我不是某米的水军，只是就事论事！）
+    <t>　　微鲸电视43寸刚买一年零两个月就不能开机，一直显示蓝屏，打400电话说给安排售后，结果4天过去才有人来，而且来的时候没带任何检测工具工具连螺丝刀什么都没有带，看了后说是要给更新系统还要收取费用145，说更新系统不行就换主板，要收取费用510元，连检测的步骤都没有。就说：越智能的东西毁的越快。这是不是就自己承认微鲸电视存在质量问题，买的某米的电视用了2年多一点问题没有（声明我不是某米的水军，只是就事论事！）
 　　我说我再开机试试，结果一直不好，当天下午再联系售后态度就特别差，说要等工程师有时间再来，具体时间也不给确定，而且态度特别差！！！！！
 　　打售后400电话态度挺好一直说是给安排，但是售后人员就是不干事，今天打电话还是态度特别差！
 　　我就没有弄明白的问题：
@@ -3443,7 +3442,7 @@
     <t>已经收到了还没有安装使用应该不错！</t>
   </si>
   <si>
-    <t xml:space="preserve">　　不知道是不是升级了。 然后就55寸15年第一批买的人。 背光不亮了 用电筒照它能看到有一点点程序在运行的显示。只是屏一直黑。 怎么弄好呀。大神。 它叫人上门帮我看。这种不知道又要收我多少维修费怕怕。</t>
+    <t>　　不知道是不是升级了。 然后就55寸15年第一批买的人。 背光不亮了 用电筒照它能看到有一点点程序在运行的显示。只是屏一直黑。 怎么弄好呀。大神。 它叫人上门帮我看。这种不知道又要收我多少维修费怕怕。</t>
   </si>
   <si>
     <t>房子还没装修好，提前试用了一下，屏幕和声音效果都不错哦，色彩艳丽，价格亲民，就是智能控制还没有弄懂，等正式使用之后再来追评五分必须的。</t>
@@ -3977,23 +3976,32 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -4008,26 +4016,40 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -4315,18 +4337,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1415"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="185.25" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
@@ -19894,6 +19915,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>